--- a/medicine/Pharmacie/Oscar_Troplowitz/Oscar_Troplowitz.xlsx
+++ b/medicine/Pharmacie/Oscar_Troplowitz/Oscar_Troplowitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oscar Troplowitz, né le 18 janvier 1863 à Gleiwitz (province de Silésie, mort le 27 avril 1918 à Hambourg) est un pharmacologue juif allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oscar Troplowitz réside à Gleiwitz jusqu'à l'âge de sept ans, avant de quitter la ville pour Breslau où il poursuit ses études au lycée Sainte-Marie-Madeleine de Breslau. Il y entame ensuite ses études de pharmacie, qu'il termine à Heidelberg en 1888.
 Avec l'aide de sa famille, il rachète en 1890, le laboratoire pharmaceutique Beiersdorf de Paul Karl Beiersdorf, situé au sud de Hambourg, à qui l'on doit en particulier l'invention du sparadrap et du ruban adhésif. Il est aussi l'inventeur de la célèbre marque Labello.
-Il met au point en 1911 la composition de la crème Nivea[1].
+Il met au point en 1911 la composition de la crème Nivea.
 </t>
         </is>
       </c>
